--- a/PAGER-COV2/REPOSITIONED_DRUG_ZONGLIANG_JC.xlsx
+++ b/PAGER-COV2/REPOSITIONED_DRUG_ZONGLIANG_JC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naruto/Desktop/PAGER-COV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4A515C-2331-9A4E-8183-FE1DCB0F4F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D78039-B561-A348-B1F4-82E1AD267D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2540" windowWidth="33600" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>CAV1, AGTR1, JUN, MCL1, EDNRA1, SLC10A1, IFTAP</t>
+  </si>
+  <si>
+    <t>Geneset</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
